--- a/JupyterNotebooks/model_dict.xlsx
+++ b/JupyterNotebooks/model_dict.xlsx
@@ -701,12 +701,12 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -732,12 +732,12 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -763,12 +763,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -794,12 +794,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Momentum</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -825,12 +825,12 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -856,12 +856,12 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -887,12 +887,12 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -918,12 +918,12 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -949,12 +949,12 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Momentum</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -980,12 +980,12 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1011,12 +1011,12 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1042,12 +1042,12 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1073,12 +1073,12 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1104,12 +1104,12 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Momentum</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1135,12 +1135,12 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1166,12 +1166,12 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1197,12 +1197,12 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1228,12 +1228,12 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1259,12 +1259,12 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Momentum</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1290,12 +1290,12 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1321,12 +1321,12 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1352,12 +1352,12 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1383,12 +1383,12 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1414,12 +1414,12 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Momentum</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1445,12 +1445,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1476,12 +1476,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1507,12 +1507,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1538,12 +1538,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1569,12 +1569,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Momentum</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1600,12 +1600,12 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1631,12 +1631,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1662,12 +1662,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1693,12 +1693,12 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1724,12 +1724,12 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Momentum</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1755,12 +1755,12 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>State</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Descriptive</t>
+          <t>Supportive</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
